--- a/Project/DataTable/Excel/音效配置表.xlsx
+++ b/Project/DataTable/Excel/音效配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="12630"/>
+    <workbookView windowWidth="23325" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="音效配置表" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -297,12 +297,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -651,8 +645,8 @@
   <sheetPr/>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -867,13 +861,13 @@
       <c r="A9" s="7">
         <v>10004</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <v>1</v>
       </c>
       <c r="E9" s="7" t="b">
@@ -893,13 +887,13 @@
       <c r="A10" s="7">
         <v>10005</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="7">
         <v>1</v>
       </c>
       <c r="E10" s="7" t="b">
@@ -919,13 +913,13 @@
       <c r="A11" s="7">
         <v>10006</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <v>1</v>
       </c>
       <c r="E11" s="7" t="b">
@@ -945,13 +939,13 @@
       <c r="A12" s="7">
         <v>10007</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="7">
         <v>1</v>
       </c>
       <c r="E12" s="7" t="b">
@@ -971,13 +965,13 @@
       <c r="A13" s="7">
         <v>10008</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="7">
         <v>1</v>
       </c>
       <c r="E13" s="7" t="b">
@@ -997,13 +991,13 @@
       <c r="A14" s="7">
         <v>10009</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="7">
         <v>1</v>
       </c>
       <c r="E14" s="7" t="b">
@@ -1023,13 +1017,13 @@
       <c r="A15" s="7">
         <v>10010</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="7">
         <v>1</v>
       </c>
       <c r="E15" s="7" t="b">
@@ -1049,13 +1043,13 @@
       <c r="A16" s="7">
         <v>10011</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="7">
         <v>1</v>
       </c>
       <c r="E16" s="7" t="b">
@@ -1075,13 +1069,13 @@
       <c r="A17" s="7">
         <v>10012</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="7">
         <v>1</v>
       </c>
       <c r="E17" s="7" t="b">
@@ -1101,13 +1095,13 @@
       <c r="A18" s="7">
         <v>10013</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="7">
         <v>1</v>
       </c>
       <c r="E18" s="7" t="b">
@@ -1127,13 +1121,13 @@
       <c r="A19" s="7">
         <v>10014</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="7">
         <v>1</v>
       </c>
       <c r="E19" s="7" t="b">
@@ -1153,13 +1147,13 @@
       <c r="A20" s="7">
         <v>10015</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="7">
         <v>1</v>
       </c>
       <c r="E20" s="7" t="b">
@@ -1179,13 +1173,13 @@
       <c r="A21" s="7">
         <v>10016</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="7">
         <v>1</v>
       </c>
       <c r="E21" s="7" t="b">
@@ -1205,13 +1199,13 @@
       <c r="A22" s="7">
         <v>10017</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="7">
         <v>1</v>
       </c>
       <c r="E22" s="7" t="b">
